--- a/natmiOut/OldD0/LR-pairs_lrc2p/Sema4d-Met.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Sema4d-Met.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.48398272709982</v>
+        <v>68.50681433333334</v>
       </c>
       <c r="H2">
-        <v>6.48398272709982</v>
+        <v>205.520443</v>
       </c>
       <c r="I2">
-        <v>0.7372470794490444</v>
+        <v>0.9663865053086182</v>
       </c>
       <c r="J2">
-        <v>0.7372470794490444</v>
+        <v>0.9663865053086185</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.16859177022119</v>
+        <v>2.254050666666667</v>
       </c>
       <c r="N2">
-        <v>2.16859177022119</v>
+        <v>6.762152</v>
       </c>
       <c r="O2">
-        <v>0.5851730972362256</v>
+        <v>0.5759961839619929</v>
       </c>
       <c r="P2">
-        <v>0.5851730972362256</v>
+        <v>0.575996183961993</v>
       </c>
       <c r="Q2">
-        <v>14.06111158024502</v>
+        <v>154.4178305192596</v>
       </c>
       <c r="R2">
-        <v>14.06111158024502</v>
+        <v>1389.760474673336</v>
       </c>
       <c r="S2">
-        <v>0.431417156909559</v>
+        <v>0.5566349392901303</v>
       </c>
       <c r="T2">
-        <v>0.431417156909559</v>
+        <v>0.5566349392901305</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.48398272709982</v>
+        <v>68.50681433333334</v>
       </c>
       <c r="H3">
-        <v>6.48398272709982</v>
+        <v>205.520443</v>
       </c>
       <c r="I3">
-        <v>0.7372470794490444</v>
+        <v>0.9663865053086182</v>
       </c>
       <c r="J3">
-        <v>0.7372470794490444</v>
+        <v>0.9663865053086185</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>1.53730616060211</v>
+        <v>0.05371366666666667</v>
       </c>
       <c r="N3">
-        <v>1.53730616060211</v>
+        <v>0.161141</v>
       </c>
       <c r="O3">
-        <v>0.4148269027637744</v>
+        <v>0.01372589688605336</v>
       </c>
       <c r="P3">
-        <v>0.4148269027637744</v>
+        <v>0.01372589688605336</v>
       </c>
       <c r="Q3">
-        <v>9.967866591608221</v>
+        <v>3.679752189495889</v>
       </c>
       <c r="R3">
-        <v>9.967866591608221</v>
+        <v>33.117769705463</v>
       </c>
       <c r="S3">
-        <v>0.3058299225394854</v>
+        <v>0.01326452152393955</v>
       </c>
       <c r="T3">
-        <v>0.3058299225394854</v>
+        <v>0.01326452152393956</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.15829786012552</v>
+        <v>68.50681433333334</v>
       </c>
       <c r="H4">
-        <v>1.15829786012552</v>
+        <v>205.520443</v>
       </c>
       <c r="I4">
-        <v>0.13170172569099</v>
+        <v>0.9663865053086182</v>
       </c>
       <c r="J4">
-        <v>0.13170172569099</v>
+        <v>0.9663865053086185</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.16859177022119</v>
+        <v>1.605544</v>
       </c>
       <c r="N4">
-        <v>2.16859177022119</v>
+        <v>4.816632</v>
       </c>
       <c r="O4">
-        <v>0.5851730972362256</v>
+        <v>0.4102779191519537</v>
       </c>
       <c r="P4">
-        <v>0.5851730972362256</v>
+        <v>0.4102779191519537</v>
       </c>
       <c r="Q4">
-        <v>2.511875206933018</v>
+        <v>109.9907047119974</v>
       </c>
       <c r="R4">
-        <v>2.511875206933018</v>
+        <v>989.916342407976</v>
       </c>
       <c r="S4">
-        <v>0.07706830673395237</v>
+        <v>0.3964870444945483</v>
       </c>
       <c r="T4">
-        <v>0.07706830673395237</v>
+        <v>0.3964870444945485</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.15829786012552</v>
+        <v>1.228643</v>
       </c>
       <c r="H5">
-        <v>1.15829786012552</v>
+        <v>3.685929</v>
       </c>
       <c r="I5">
-        <v>0.13170172569099</v>
+        <v>0.01733176511849816</v>
       </c>
       <c r="J5">
-        <v>0.13170172569099</v>
+        <v>0.01733176511849817</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.53730616060211</v>
+        <v>2.254050666666667</v>
       </c>
       <c r="N5">
-        <v>1.53730616060211</v>
+        <v>6.762152</v>
       </c>
       <c r="O5">
-        <v>0.4148269027637744</v>
+        <v>0.5759961839619929</v>
       </c>
       <c r="P5">
-        <v>0.4148269027637744</v>
+        <v>0.575996183961993</v>
       </c>
       <c r="Q5">
-        <v>1.780658436183203</v>
+        <v>2.769423573245333</v>
       </c>
       <c r="R5">
-        <v>1.780658436183203</v>
+        <v>24.924812159208</v>
       </c>
       <c r="S5">
-        <v>0.05463341895703758</v>
+        <v>0.009983030569580519</v>
       </c>
       <c r="T5">
-        <v>0.05463341895703758</v>
+        <v>0.009983030569580524</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,60 +773,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.15257653441344</v>
+        <v>1.228643</v>
       </c>
       <c r="H6">
-        <v>1.15257653441344</v>
+        <v>3.685929</v>
       </c>
       <c r="I6">
-        <v>0.1310511948599656</v>
+        <v>0.01733176511849816</v>
       </c>
       <c r="J6">
-        <v>0.1310511948599656</v>
+        <v>0.01733176511849817</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>2.16859177022119</v>
+        <v>0.05371366666666667</v>
       </c>
       <c r="N6">
-        <v>2.16859177022119</v>
+        <v>0.161141</v>
       </c>
       <c r="O6">
-        <v>0.5851730972362256</v>
+        <v>0.01372589688605336</v>
       </c>
       <c r="P6">
-        <v>0.5851730972362256</v>
+        <v>0.01372589688605336</v>
       </c>
       <c r="Q6">
-        <v>2.499467987079046</v>
+        <v>0.06599492055433333</v>
       </c>
       <c r="R6">
-        <v>2.499467987079046</v>
+        <v>0.5939542849889999</v>
       </c>
       <c r="S6">
-        <v>0.0766876335927142</v>
+        <v>0.0002378940208698022</v>
       </c>
       <c r="T6">
-        <v>0.0766876335927142</v>
+        <v>0.0002378940208698022</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.15257653441344</v>
+        <v>1.228643</v>
       </c>
       <c r="H7">
-        <v>1.15257653441344</v>
+        <v>3.685929</v>
       </c>
       <c r="I7">
-        <v>0.1310511948599656</v>
+        <v>0.01733176511849816</v>
       </c>
       <c r="J7">
-        <v>0.1310511948599656</v>
+        <v>0.01733176511849817</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.53730616060211</v>
+        <v>1.605544</v>
       </c>
       <c r="N7">
-        <v>1.53730616060211</v>
+        <v>4.816632</v>
       </c>
       <c r="O7">
-        <v>0.4148269027637744</v>
+        <v>0.4102779191519537</v>
       </c>
       <c r="P7">
-        <v>0.4148269027637744</v>
+        <v>0.4102779191519537</v>
       </c>
       <c r="Q7">
-        <v>1.771863006919211</v>
+        <v>1.972640396792</v>
       </c>
       <c r="R7">
-        <v>1.771863006919211</v>
+        <v>17.753763571128</v>
       </c>
       <c r="S7">
-        <v>0.05436356126725141</v>
+        <v>0.007110840528047839</v>
       </c>
       <c r="T7">
-        <v>0.05436356126725141</v>
+        <v>0.007110840528047842</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.154206333333333</v>
+      </c>
+      <c r="H8">
+        <v>3.462619</v>
+      </c>
+      <c r="I8">
+        <v>0.01628172957288352</v>
+      </c>
+      <c r="J8">
+        <v>0.01628172957288353</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>2.254050666666667</v>
+      </c>
+      <c r="N8">
+        <v>6.762152</v>
+      </c>
+      <c r="O8">
+        <v>0.5759961839619929</v>
+      </c>
+      <c r="P8">
+        <v>0.575996183961993</v>
+      </c>
+      <c r="Q8">
+        <v>2.601639555120889</v>
+      </c>
+      <c r="R8">
+        <v>23.414755996088</v>
+      </c>
+      <c r="S8">
+        <v>0.009378214102282038</v>
+      </c>
+      <c r="T8">
+        <v>0.009378214102282042</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.154206333333333</v>
+      </c>
+      <c r="H9">
+        <v>3.462619</v>
+      </c>
+      <c r="I9">
+        <v>0.01628172957288352</v>
+      </c>
+      <c r="J9">
+        <v>0.01628172957288353</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.05371366666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.161141</v>
+      </c>
+      <c r="O9">
+        <v>0.01372589688605336</v>
+      </c>
+      <c r="P9">
+        <v>0.01372589688605336</v>
+      </c>
+      <c r="Q9">
+        <v>0.06199665425322223</v>
+      </c>
+      <c r="R9">
+        <v>0.5579698882790001</v>
+      </c>
+      <c r="S9">
+        <v>0.0002234813412440049</v>
+      </c>
+      <c r="T9">
+        <v>0.0002234813412440049</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.154206333333333</v>
+      </c>
+      <c r="H10">
+        <v>3.462619</v>
+      </c>
+      <c r="I10">
+        <v>0.01628172957288352</v>
+      </c>
+      <c r="J10">
+        <v>0.01628172957288353</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.605544</v>
+      </c>
+      <c r="N10">
+        <v>4.816632</v>
+      </c>
+      <c r="O10">
+        <v>0.4102779191519537</v>
+      </c>
+      <c r="P10">
+        <v>0.4102779191519537</v>
+      </c>
+      <c r="Q10">
+        <v>1.853129053245334</v>
+      </c>
+      <c r="R10">
+        <v>16.678161479208</v>
+      </c>
+      <c r="S10">
+        <v>0.006680034129357479</v>
+      </c>
+      <c r="T10">
+        <v>0.006680034129357482</v>
       </c>
     </row>
   </sheetData>
